--- a/output/service.go_ms.json/queue.result.xlsx
+++ b/output/service.go_ms.json/queue.result.xlsx
@@ -523,29 +523,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>419</v>
+        <v>3649</v>
       </c>
       <c r="G2" t="n">
-        <v>10.05037179179659</v>
+        <v>87.52698488846245</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 07:00:00.000000', 'end': '2024-04-15 08:00:00.000000'}</t>
+          <t>info</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,29 +577,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>414</v>
+        <v>517</v>
       </c>
       <c r="G3" t="n">
-        <v>9.930438954185657</v>
+        <v>12.40105540897098</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 05:00:00.000000', 'end': '2024-04-15 06:00:00.000000'}</t>
+          <t>warning</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,29 +631,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>414</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>9.930438954185657</v>
+        <v>0.07195970256656273</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 08:00:00.000000', 'end': '2024-04-15 09:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,29 +685,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>413</v>
+        <v>3649</v>
       </c>
       <c r="G5" t="n">
-        <v>9.906452386663469</v>
+        <v>87.52698488846245</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 04:00:00.000000', 'end': '2024-04-15 05:00:00.000000'}</t>
+          <t>sync_queue.go:60</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>408</v>
+        <v>517</v>
       </c>
       <c r="G6" t="n">
-        <v>9.78651954905253</v>
+        <v>12.40105540897098</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 01:00:00.000000', 'end': '2024-04-15 02:00:00.000000'}</t>
+          <t>service_channel.go:147</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -793,29 +793,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>9.738546414008155</v>
+        <v>0.07195970256656273</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 02:00:00.000000', 'end': '2024-04-15 03:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -856,20 +856,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="G8" t="n">
-        <v>9.714559846485967</v>
+        <v>10.05037179179659</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 03:00:00.000000', 'end': '2024-04-15 04:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 07:00:00.000000', 'end': '2024-04-15 08:00:00.000000'}</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -910,20 +910,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G9" t="n">
-        <v>9.714559846485967</v>
+        <v>9.930438954185657</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 09:00:00.000000', 'end': '2024-04-15 10:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 05:00:00.000000', 'end': '2024-04-15 06:00:00.000000'}</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -964,20 +964,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G10" t="n">
-        <v>9.666586711441592</v>
+        <v>9.930438954185657</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 06:00:00.000000', 'end': '2024-04-15 07:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 08:00:00.000000', 'end': '2024-04-15 09:00:00.000000'}</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="G11" t="n">
-        <v>9.546653873830655</v>
+        <v>9.906452386663469</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'start': '2024-04-15 00:00:00.000000', 'end': '2024-04-15 01:00:00.000000'}</t>
+          <t>{'start': '2024-04-15 04:00:00.000000', 'end': '2024-04-15 05:00:00.000000'}</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1063,29 +1063,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>3649</v>
+        <v>408</v>
       </c>
       <c r="G12" t="n">
-        <v>87.52698488846245</v>
+        <v>9.78651954905253</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>{'start': '2024-04-15 01:00:00.000000', 'end': '2024-04-15 02:00:00.000000'}</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>517</v>
+        <v>406</v>
       </c>
       <c r="G13" t="n">
-        <v>12.40105540897098</v>
+        <v>9.738546414008155</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>{'start': '2024-04-15 02:00:00.000000', 'end': '2024-04-15 03:00:00.000000'}</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07195970256656273</v>
+        <v>9.714559846485967</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '2024-04-15 03:00:00.000000', 'end': '2024-04-15 04:00:00.000000'}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1225,29 +1225,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>3649</v>
+        <v>405</v>
       </c>
       <c r="G15" t="n">
-        <v>87.52698488846245</v>
+        <v>9.714559846485967</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>QueueService:syncQueue</t>
+          <t>{'start': '2024-04-15 09:00:00.000000', 'end': '2024-04-15 10:00:00.000000'}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1279,29 +1279,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>517</v>
+        <v>403</v>
       </c>
       <c r="G16" t="n">
-        <v>12.40105540897098</v>
+        <v>9.666586711441592</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>MicroServiceChannel</t>
+          <t>{'start': '2024-04-15 06:00:00.000000', 'end': '2024-04-15 07:00:00.000000'}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1333,29 +1333,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07195970256656273</v>
+        <v>9.546653873830655</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '2024-04-15 00:00:00.000000', 'end': '2024-04-15 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>sync_queue.go:60</t>
+          <t>QueueService:syncQueue</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>service_channel.go:147</t>
+          <t>MicroServiceChannel</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1618,14 +1618,14 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G22" t="n">
-        <v>8.251379227632526</v>
+        <v>8.107459822499401</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['QueueService-syncQueue Excute elapsed 1.109043328s']</t>
+          <t>['QueueService-syncQueue Excute elapsed 1.024293015s']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['QueueService-syncQueue Excute elapsed 129.144952ms']</t>
+          <t>['QueueService-syncQueue Excute elapsed 108.154631ms']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1942,14 +1942,14 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1918925401775006</v>
+        <v>0.2158791076996882</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['QueueService-syncQueue Excute elapsed 126.614036ms']</t>
+          <t>['QueueService-syncQueue Excute elapsed 129.144952ms']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['QueueService-syncQueue Excute elapsed 128.378999ms']</t>
+          <t>['QueueService-syncQueue Excute elapsed 126.614036ms']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2050,14 +2050,14 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.167905972655313</v>
+        <v>0.1918925401775006</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['QueueService-syncQueue Excute elapsed 102.660646ms']</t>
+          <t>['QueueService-syncQueue Excute elapsed 128.378999ms']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
